--- a/sample.xlsx
+++ b/sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -76,12 +76,6 @@
     <t>BI518</t>
   </si>
   <si>
-    <t>BI519</t>
-  </si>
-  <si>
-    <t>BI530</t>
-  </si>
-  <si>
     <t>BI616</t>
   </si>
   <si>
@@ -91,12 +85,6 @@
     <t>BI750</t>
   </si>
   <si>
-    <t>BI850</t>
-  </si>
-  <si>
-    <t>BI961</t>
-  </si>
-  <si>
     <t>BI970</t>
   </si>
   <si>
@@ -154,24 +142,6 @@
     <t>Add MB DMG CF01(Wilmar, GMS95%, 서현화학)</t>
   </si>
   <si>
-    <t>Add MB LA402XP(Adeka)</t>
-  </si>
-  <si>
-    <t>Add MB NA-960</t>
-  </si>
-  <si>
-    <t>Add MB NPK(16%, MI=50)</t>
-  </si>
-  <si>
-    <t>Add MB 선일(3800 base)</t>
-  </si>
-  <si>
-    <t>Add PA FinaWax</t>
-  </si>
-  <si>
-    <t>Add PA SLIP 250H</t>
-  </si>
-  <si>
     <t>MPa</t>
   </si>
   <si>
@@ -214,10 +184,7 @@
     <t>LGChem</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t/>
   </si>
   <si>
     <t>CI20</t>
@@ -265,12 +232,6 @@
     <t>HanwhaTotal-BI518</t>
   </si>
   <si>
-    <t>HanwhaTotal-BI519</t>
-  </si>
-  <si>
-    <t>HanwhaTotal-BI530</t>
-  </si>
-  <si>
     <t>HanwhaTotal-BI616</t>
   </si>
   <si>
@@ -280,12 +241,6 @@
     <t>HanwhaTotal-BI750</t>
   </si>
   <si>
-    <t>HanwhaTotal-BI850</t>
-  </si>
-  <si>
-    <t>HanwhaTotal-BI961</t>
-  </si>
-  <si>
     <t>HanwhaTotal-BI970</t>
   </si>
   <si>
@@ -341,24 +296,6 @@
   </si>
   <si>
     <t>A-MBD</t>
-  </si>
-  <si>
-    <t>A-MBL</t>
-  </si>
-  <si>
-    <t>A-MBN</t>
-  </si>
-  <si>
-    <t>A-MBNPK</t>
-  </si>
-  <si>
-    <t>A-MBS</t>
-  </si>
-  <si>
-    <t>A-PAF</t>
-  </si>
-  <si>
-    <t>A-PA250</t>
   </si>
 </sst>
 </file>
@@ -385,9 +322,23 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
@@ -404,19 +355,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,510 +719,922 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AM104"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9" style="2" customWidth="1"/>
+    <col min="29" max="29" width="9" style="2" customWidth="1"/>
+    <col min="34" max="34" width="9" style="2" customWidth="1"/>
+    <col min="39" max="39" width="9" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2" t="s">
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-    </row>
-    <row r="2" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="5"/>
+    </row>
+    <row r="2" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="8"/>
+    </row>
+    <row r="3" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="F3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="J3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="L3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="M3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="N3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="O3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="W3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="X3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM3" s="8"/>
+    </row>
+    <row r="4" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM4" s="8"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>53</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
         <v>54</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="4" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
         <v>55</v>
       </c>
-      <c r="I3" s="4" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>56</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="4" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
         <v>57</v>
       </c>
-      <c r="L3" s="4" t="s">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
         <v>58</v>
       </c>
-      <c r="M3" s="4" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
         <v>59</v>
       </c>
-      <c r="N3" s="4" t="s">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
         <v>60</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="4" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
         <v>61</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z3" s="4" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
         <v>62</v>
       </c>
-      <c r="AA3" s="4" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
         <v>63</v>
       </c>
-      <c r="AB3" s="4" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
         <v>64</v>
       </c>
-      <c r="AC3" s="4" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
         <v>65</v>
       </c>
-      <c r="AD3" s="4" t="s">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
         <v>66</v>
       </c>
-      <c r="AE3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG3" s="4" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
         <v>67</v>
       </c>
-      <c r="AH3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL3" s="4" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
         <v>68</v>
       </c>
-      <c r="AM3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
         <v>69</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
         <v>70</v>
       </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
         <v>71</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
         <v>72</v>
       </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
         <v>73</v>
       </c>
-      <c r="G4" s="4" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
         <v>74</v>
       </c>
-      <c r="H4" s="4" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
         <v>75</v>
       </c>
-      <c r="I4" s="4" t="s">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
         <v>76</v>
       </c>
-      <c r="J4" s="4" t="s">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
         <v>77</v>
       </c>
-      <c r="K4" s="4" t="s">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
         <v>78</v>
       </c>
-      <c r="L4" s="4" t="s">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
         <v>79</v>
       </c>
-      <c r="M4" s="4" t="s">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
         <v>80</v>
       </c>
-      <c r="N4" s="4" t="s">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
         <v>81</v>
       </c>
-      <c r="O4" s="4" t="s">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
         <v>82</v>
       </c>
-      <c r="P4" s="4" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
         <v>83</v>
       </c>
-      <c r="Q4" s="4" t="s">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
         <v>84</v>
       </c>
-      <c r="R4" s="4" t="s">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
         <v>85</v>
       </c>
-      <c r="S4" s="4" t="s">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
         <v>86</v>
       </c>
-      <c r="T4" s="4" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
         <v>87</v>
       </c>
-      <c r="U4" s="4" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
         <v>88</v>
       </c>
-      <c r="V4" s="4" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
         <v>89</v>
       </c>
-      <c r="W4" s="4" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
         <v>90</v>
       </c>
-      <c r="X4" s="4" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
         <v>91</v>
       </c>
-      <c r="Y4" s="4" t="s">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
         <v>92</v>
       </c>
-      <c r="Z4" s="4" t="s">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
         <v>93</v>
       </c>
-      <c r="AA4" s="4" t="s">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
         <v>94</v>
       </c>
-      <c r="AB4" s="4" t="s">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
         <v>95</v>
       </c>
-      <c r="AC4" s="4" t="s">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
         <v>96</v>
       </c>
-      <c r="AD4" s="4" t="s">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
         <v>97</v>
       </c>
-      <c r="AE4" s="4" t="s">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
         <v>98</v>
       </c>
-      <c r="AF4" s="4" t="s">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
         <v>99</v>
       </c>
-      <c r="AG4" s="4" t="s">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
         <v>100</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AV1"/>
+    <mergeCell ref="I1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="A1:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
